--- a/Excel Data/TDR/TDRMaturity_IBG.xlsx
+++ b/Excel Data/TDR/TDRMaturity_IBG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TDRIssuanceMaturityLCY_IBG" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="16">
   <si>
     <t>CUSTOMER.ID</t>
   </si>
@@ -56,6 +56,21 @@
   </si>
   <si>
     <t>LD1430416803</t>
+  </si>
+  <si>
+    <t>DRAWDOWN.ACCOUNT</t>
+  </si>
+  <si>
+    <t>PRIN.LIQ.ACCT</t>
+  </si>
+  <si>
+    <t>INT.LIQ.ACCT</t>
+  </si>
+  <si>
+    <t>5000000520</t>
+  </si>
+  <si>
+    <t>5000000521</t>
   </si>
 </sst>
 </file>
@@ -91,8 +106,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,9 +401,12 @@
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,10 +419,19 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>11871120</v>
+        <v>11871078</v>
       </c>
       <c r="B2">
         <v>21022</v>
@@ -413,6 +441,15 @@
       </c>
       <c r="D2">
         <v>100000</v>
+      </c>
+      <c r="E2">
+        <v>5000000513</v>
+      </c>
+      <c r="F2">
+        <v>5000000513</v>
+      </c>
+      <c r="G2">
+        <v>5000000513</v>
       </c>
     </row>
   </sheetData>
@@ -422,10 +459,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,9 +472,12 @@
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,10 +493,19 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>12105488</v>
+        <v>11871117</v>
       </c>
       <c r="B2">
         <v>11745297</v>
@@ -469,6 +518,15 @@
       </c>
       <c r="E2">
         <v>100</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5000000518</v>
+      </c>
+      <c r="G2">
+        <v>5000000518</v>
+      </c>
+      <c r="H2">
+        <v>5000000518</v>
       </c>
     </row>
   </sheetData>
@@ -478,10 +536,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G1" sqref="G1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,9 +550,12 @@
     <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -513,10 +574,19 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>12105488</v>
+        <v>11871085</v>
       </c>
       <c r="B2">
         <v>11745297</v>
@@ -532,6 +602,15 @@
       </c>
       <c r="F2">
         <v>100</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -541,10 +620,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,9 +634,12 @@
     <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -576,10 +658,19 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>12105488</v>
+        <v>11871119</v>
       </c>
       <c r="B2">
         <v>11745297</v>
@@ -595,6 +686,15 @@
       </c>
       <c r="F2">
         <v>100</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -606,7 +706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
